--- a/biology/Zoologie/Cucullie_du_bouillon_blanc/Cucullie_du_bouillon_blanc.xlsx
+++ b/biology/Zoologie/Cucullie_du_bouillon_blanc/Cucullie_du_bouillon_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shargacucullia verbasci
 La Cucullie du bouillon blanc (Shargacucullia verbasci ou Cucullia verbasci en fonction des sources), aussi appelée la Brèche, est une espèce de lépidoptères de la famille des Noctuidae et de la sous-famille des Cuculliinae.
@@ -514,14 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-Le papillon, d'une envergure de 45 à 50 mm, est très difficile à distinguer de l'imago de Shargacucullia scrophulariae si ce n'est par l'examen des pièces génitales.
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le papillon, d'une envergure de 45 à 50 mm, est très difficile à distinguer de l'imago de Shargacucullia scrophulariae si ce n'est par l'examen des pièces génitales.
 			Papillon vivant.
 			Papillon étalé.
 			Deux chenilles.
-Chenille
-La chenille vit sur les plus grandes feuilles du bouillon blanc, soit à leur bases au plus près de la tige soit au dos des feuilles.
-Elle est très reconnaissable par ses couleurs claires : blanche, jaune et noire
 </t>
         </is>
       </c>
@@ -547,12 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurasiatique, l'espèce est répandue en France.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille vit sur les plus grandes feuilles du bouillon blanc, soit à leur bases au plus près de la tige soit au dos des feuilles.
+Elle est très reconnaissable par ses couleurs claires : blanche, jaune et noire
 </t>
         </is>
       </c>
@@ -578,12 +599,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurasiatique, l'espèce est répandue en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cucullie_du_bouillon_blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucullie_du_bouillon_blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de la chenille sont le bouillon blanc, d'autres espèces du genre Verbascum et diverses espèces de scrofulaires (genre Scrophularia). Le Buddleja est accepté en élevage[1]. Parfois nombreuses sur une même plante, les chenilles atteignant 50 mm de long avant la nymphose, sont bien visibles de mi-mai à juillet lorsqu'elles se nourrissent.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont le bouillon blanc, d'autres espèces du genre Verbascum et diverses espèces de scrofulaires (genre Scrophularia). Le Buddleja est accepté en élevage. Parfois nombreuses sur une même plante, les chenilles atteignant 50 mm de long avant la nymphose, sont bien visibles de mi-mai à juillet lorsqu'elles se nourrissent.
 La chenille se transforme en chrysalide et hiberne un à cinq ans dans le sol[réf. nécessaire].
 En France, l'imago vole d'avril à juin en une génération[réf. souhaitée].
 </t>
